--- a/data/trans_orig/P14B31-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6C39E1-4997-4EEC-ACE2-1722F8FA243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF1DDB8-0C29-4A19-807C-ABB43A080B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3CA3459F-1D3E-4951-84DC-2E4DB648F0D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EB1705B-ADA2-461E-8F63-44409266D4A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
   <si>
     <t>Población cuya enfermedad de riñón le limita en 2012 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -102,10 +102,10 @@
     <t>45,7%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>36,05%</t>
@@ -114,31 +114,31 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>64,1%</t>
+    <t>64,74%</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>54,3%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>35,9%</t>
+    <t>35,26%</t>
   </si>
   <si>
     <t>90,68%</t>
@@ -147,10 +147,10 @@
     <t>59,03%</t>
   </si>
   <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -159,55 +159,55 @@
     <t>55,66%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -216,210 +216,216 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>70,58%</t>
   </si>
   <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad de riñón le limita en 2015 (Tasa respuesta: 1,46%)</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad de riñón le limita en 2015 (Tasa respuesta: 1,46%)</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
     <t>45,01%</t>
   </si>
   <si>
@@ -441,64 +447,64 @@
     <t>54,7%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>43,98%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>48,31%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>51,69%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>35,11%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>51,49%</t>
@@ -513,19 +519,19 @@
     <t>42,09%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>64,89%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>48,51%</t>
@@ -540,112 +546,112 @@
     <t>57,91%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>43,57%</t>
+    <t>51,64%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>47,66%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>56,43%</t>
+    <t>48,36%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>52,34%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB90624D-0C79-4F13-B692-F5E0DE3D47B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF019409-DA14-416F-AD53-741A755D9DC1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2114,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E6BEFD-D5C3-4528-B4B0-E4A5685BA950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91EC730-9E0E-4088-9E69-76A7800AE046}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2399,7 +2405,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2408,13 +2414,13 @@
         <v>7864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2423,13 +2429,13 @@
         <v>9675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,10 +2450,10 @@
         <v>4662</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2459,13 +2465,13 @@
         <v>6436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2474,13 +2480,13 @@
         <v>11098</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2554,13 @@
         <v>7434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2563,13 +2569,13 @@
         <v>8841</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2578,13 +2584,13 @@
         <v>16275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2605,13 @@
         <v>6155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2614,13 +2620,13 @@
         <v>11260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -2629,13 +2635,13 @@
         <v>17415</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2709,13 @@
         <v>3284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2718,13 +2724,13 @@
         <v>3580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2733,13 +2739,13 @@
         <v>6864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2760,13 @@
         <v>6071</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2769,13 +2775,13 @@
         <v>3373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2784,13 +2790,13 @@
         <v>9444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2864,13 @@
         <v>1803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2873,13 +2879,13 @@
         <v>9994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2888,13 +2894,13 @@
         <v>11797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,10 +2915,10 @@
         <v>9405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2924,13 +2930,13 @@
         <v>3549</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2939,13 +2945,13 @@
         <v>12954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3019,13 @@
         <v>15126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3028,13 +3034,13 @@
         <v>31262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3043,13 +3049,13 @@
         <v>46388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3070,13 @@
         <v>30346</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -3079,13 +3085,13 @@
         <v>25564</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -3094,13 +3100,13 @@
         <v>55910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B31-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF1DDB8-0C29-4A19-807C-ABB43A080B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CADCD18-4D0A-407F-836F-5016185D3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EB1705B-ADA2-461E-8F63-44409266D4A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9741495-0A08-4487-840C-87B1A892169E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="203">
   <si>
     <t>Población cuya enfermedad de riñón le limita en 2012 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,274 +96,268 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>45,7%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>54,3%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>59,03%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>32,39%</t>
   </si>
   <si>
     <t>70,58%</t>
   </si>
   <si>
-    <t>28,1%</t>
+    <t>27,6%</t>
   </si>
   <si>
     <t>68,29%</t>
   </si>
   <si>
-    <t>37,44%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
+    <t>62,19%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya enfermedad de riñón le limita en 2015 (Tasa respuesta: 1,46%)</t>
+    <t>Población cuya enfermedad de riñón le limita en 2016 (Tasa respuesta: 1,46%)</t>
   </si>
   <si>
     <t>16,38%</t>
@@ -378,7 +372,7 @@
     <t>26,22%</t>
   </si>
   <si>
-    <t>69,87%</t>
+    <t>57,65%</t>
   </si>
   <si>
     <t>83,62%</t>
@@ -393,265 +387,265 @@
     <t>73,78%</t>
   </si>
   <si>
-    <t>30,13%</t>
+    <t>42,35%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>71,82%</t>
+    <t>71,25%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>46,58%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>72,02%</t>
   </si>
   <si>
-    <t>28,18%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>53,42%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>43,98%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>48,31%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>51,69%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>35,11%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>64,89%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>48,51%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>51,64%</t>
+    <t>46,3%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>47,66%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>53,7%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>52,34%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF019409-DA14-416F-AD53-741A755D9DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945F9954-8D7E-4314-88CB-160053E766F0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1652,7 +1646,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1661,10 +1655,10 @@
         <v>4988</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -1676,13 +1670,13 @@
         <v>11302</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,13 +1691,13 @@
         <v>3168</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1712,13 +1706,13 @@
         <v>2080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1727,13 +1721,13 @@
         <v>5247</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1783,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,7 +1795,7 @@
         <v>2374</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -1816,13 +1810,13 @@
         <v>9701</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1831,13 +1825,13 @@
         <v>12075</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,7 +1846,7 @@
         <v>2051</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -1867,13 +1861,13 @@
         <v>4884</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1882,13 +1876,13 @@
         <v>6935</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1950,13 @@
         <v>21518</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1971,13 +1965,13 @@
         <v>32617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -1986,13 +1980,13 @@
         <v>54136</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2001,13 @@
         <v>18398</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2022,13 +2016,13 @@
         <v>19385</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -2037,13 +2031,13 @@
         <v>37782</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,7 +2093,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91EC730-9E0E-4088-9E69-76A7800AE046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01CD457-04F0-4A82-9900-08FCF13EBF4C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2137,7 +2131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2244,13 +2238,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2259,7 +2253,7 @@
         <v>983</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2274,13 +2268,13 @@
         <v>1777</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,10 +2289,10 @@
         <v>4052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -2310,7 +2304,7 @@
         <v>946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2325,10 +2319,10 @@
         <v>4998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -2399,13 +2393,13 @@
         <v>1811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2414,13 +2408,13 @@
         <v>7864</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2429,13 +2423,13 @@
         <v>9675</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,10 +2444,10 @@
         <v>4662</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2465,13 +2459,13 @@
         <v>6436</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2480,13 +2474,13 @@
         <v>11098</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2548,13 @@
         <v>7434</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2569,13 +2563,13 @@
         <v>8841</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2584,13 +2578,13 @@
         <v>16275</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2599,13 @@
         <v>6155</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2620,13 +2614,13 @@
         <v>11260</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -2635,13 +2629,13 @@
         <v>17415</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2703,13 @@
         <v>3284</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2724,13 +2718,13 @@
         <v>3580</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2739,13 +2733,13 @@
         <v>6864</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2754,13 @@
         <v>6071</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2775,13 +2769,13 @@
         <v>3373</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2790,13 +2784,13 @@
         <v>9444</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2864,13 +2858,13 @@
         <v>1803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2879,13 +2873,13 @@
         <v>9994</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2894,13 +2888,13 @@
         <v>11797</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,10 +2909,10 @@
         <v>9405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2930,13 +2924,13 @@
         <v>3549</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2945,13 +2939,13 @@
         <v>12954</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3013,13 @@
         <v>15126</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3034,13 +3028,13 @@
         <v>31262</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3049,13 +3043,13 @@
         <v>46388</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3064,13 @@
         <v>30346</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -3085,13 +3079,13 @@
         <v>25564</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -3100,13 +3094,13 @@
         <v>55910</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,7 +3156,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
